--- a/Result/main/特徴量選択ありなし/feature_main_SFM_001/feature_rank10.xlsx
+++ b/Result/main/特徴量選択ありなし/feature_main_SFM_001/feature_rank10.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perun\PycharmProjects\RealTime_System\Result\main\特徴量選択ありなし\feature_main_SFM_001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D1B6D59-F2F4-49FF-888D-26843C6A3ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2D26BA-E03D-4743-A9DC-ECE1D8E53009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="30015" yWindow="2100" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="feature_rank10" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">feature_rank10!$A$1:$C$154</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -490,7 +493,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1435,12 +1438,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
@@ -1452,1168 +1462,1168 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>4.8012090921717701E-3</v>
+        <v>5.0428720319214901E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2.7492521552440301E-3</v>
+        <v>4.8252684459641197E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>4.3198201658573602E-3</v>
+        <v>3.5437075422823199E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>7.2942476249997302E-3</v>
+        <v>3.0656144270856701E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>2.4827089526135702E-3</v>
+        <v>2.50189008526263E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>4.1043438162616103E-3</v>
+        <v>2.20913138595633E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>6.7140983286884497E-3</v>
+        <v>2.1948950362086401E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>3.8736604275618198E-3</v>
+        <v>1.9447725648463102E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>4.68027152623798E-3</v>
+        <v>1.8992399549268599E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1.0706504747246E-2</v>
+        <v>1.7915983438157E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>9.8514683340947002E-3</v>
+        <v>1.6403929936152799E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>7.4030046406106101E-3</v>
+        <v>1.5808299100094E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>1.7915983438157E-2</v>
+        <v>1.47129985745913E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>4.51926777640832E-3</v>
+        <v>1.41256360769039E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>8.9777649391505898E-3</v>
+        <v>1.3947710347504499E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>2.4064048467348602E-3</v>
+        <v>1.37004961615618E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>6.7172977928716699E-3</v>
+        <v>1.30700806361697E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>2.20913138595633E-2</v>
+        <v>1.2864918269050001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>5.0428720319214901E-2</v>
+        <v>1.23342055561735E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>4.5296403011834104E-3</v>
+        <v>1.22961380044507E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>4.2503413619501898E-3</v>
+        <v>1.2001240199925401E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>2.7959317115981799E-3</v>
+        <v>1.18557224026117E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>1.2864918269050001E-2</v>
+        <v>1.1367493211845801E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>2.4972254503298598E-3</v>
+        <v>1.1047946402668599E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="B26" t="b">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>1.37004961615618E-2</v>
+        <v>1.07881773026858E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B27" t="b">
         <v>1</v>
       </c>
       <c r="C27">
-        <v>1.41256360769039E-2</v>
+        <v>1.0706504747246E-2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>2.1948950362086401E-2</v>
+        <v>1.02919948992602E-2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>2.6862677340123301E-3</v>
+        <v>1.02297937714613E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>4.4598802913849997E-3</v>
+        <v>9.9205844518593309E-3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>4.1505483586310099E-3</v>
+        <v>9.8514683340947002E-3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>5.9749324112490596E-3</v>
+        <v>9.4544623047342798E-3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>6.7660397337347697E-3</v>
+        <v>9.3052551059352503E-3</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>2.59078347703831E-3</v>
+        <v>9.1597481346596E-3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>3.2992644997828402E-3</v>
+        <v>9.0609838460228402E-3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>3.9433275036220797E-3</v>
+        <v>8.9777649391505898E-3</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B37" t="b">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>6.2598241006837597E-3</v>
+        <v>7.8961155178124999E-3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B38" t="b">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>3.5530433898998499E-3</v>
+        <v>7.4030046406106101E-3</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="B39" t="b">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>3.5501590330342101E-3</v>
+        <v>7.3854112682030099E-3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>4.8252684459641197E-2</v>
+        <v>7.2942476249997302E-3</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>2.50189008526263E-2</v>
+        <v>7.01624848309084E-3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="B42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>1.18557224026117E-2</v>
+        <v>7.0073988668028697E-3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B43" t="b">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>4.1716488057230699E-3</v>
+        <v>6.9477360917313E-3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B44" t="b">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>3.8629491677409501E-3</v>
+        <v>6.7660397337347697E-3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B45" t="b">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>3.9202115786843399E-3</v>
+        <v>6.7568289215843604E-3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B46" t="b">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>7.01624848309084E-3</v>
+        <v>6.7172977928716699E-3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B47" t="b">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>6.7568289215843604E-3</v>
+        <v>6.7140983286884497E-3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B48" t="b">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>4.1878774723652203E-3</v>
+        <v>6.2598241006837597E-3</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>1.2001240199925401E-2</v>
+        <v>5.9840021857716997E-3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B50" t="b">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>5.36731107948732E-3</v>
+        <v>5.9749324112490596E-3</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B51" t="b">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>9.1597481346596E-3</v>
+        <v>5.9557351755691402E-3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="B52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>1.02919948992602E-2</v>
+        <v>5.6935505102165603E-3</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B53" t="b">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>1.8936279107942401E-3</v>
+        <v>5.36731107948732E-3</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>1.47129985745913E-2</v>
+        <v>5.34606906168419E-3</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="B55" t="b">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>7.8961155178124999E-3</v>
+        <v>4.9552441242037204E-3</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="B56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>3.5437075422823199E-2</v>
+        <v>4.9454824790695203E-3</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="B57" t="b">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>9.4544623047342798E-3</v>
+        <v>4.8985842847868496E-3</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="B58" t="b">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>4.7496908510252199E-3</v>
+        <v>4.8012090921717701E-3</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="b">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>3.2009988323491402E-3</v>
+        <v>4.7496908510252199E-3</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B60" t="b">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>2.8169987267097898E-3</v>
+        <v>4.68027152623798E-3</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="B61" t="b">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>3.4959187242876201E-3</v>
+        <v>4.6605966860178002E-3</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="B62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>1.3947710347504499E-2</v>
+        <v>4.5320592590218402E-3</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="B63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>1.30700806361697E-2</v>
+        <v>4.5296403011834104E-3</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="B64" t="b">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>6.9477360917313E-3</v>
+        <v>4.51926777640832E-3</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="B65" t="b">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>3.3192751674608599E-3</v>
+        <v>4.4961353207627298E-3</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B66" t="b">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>2.3375890492737601E-3</v>
+        <v>4.4598802913849997E-3</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="B67" t="b">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>2.8695233846746798E-3</v>
+        <v>4.3198201658573602E-3</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="B68" t="b">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>5.9840021857716997E-3</v>
+        <v>4.2503413619501898E-3</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="B69" t="b">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>5.34606906168419E-3</v>
+        <v>4.2223488213628899E-3</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="B70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>1.6403929936152799E-2</v>
+        <v>4.2085107003471704E-3</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B71" t="b">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>5.9557351755691402E-3</v>
+        <v>4.1881229279374203E-3</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B72" t="b">
         <v>0</v>
       </c>
       <c r="C72">
-        <v>2.83186908226457E-3</v>
+        <v>4.1878774723652203E-3</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B73" t="b">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>2.53828864890127E-3</v>
+        <v>4.1716488057230699E-3</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="B74" t="b">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>1.73653266563582E-3</v>
+        <v>4.1505483586310099E-3</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="B75" t="b">
         <v>0</v>
       </c>
       <c r="C75">
-        <v>3.9802315841783497E-3</v>
+        <v>4.1043438162616103E-3</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" t="b">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>2.01593998661064E-3</v>
+        <v>3.9802315841783497E-3</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="B77" t="b">
         <v>0</v>
       </c>
       <c r="C77">
-        <v>1.6083685923649199E-3</v>
+        <v>3.9433275036220797E-3</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="B78" t="b">
         <v>0</v>
       </c>
       <c r="C78">
-        <v>2.1689874521959602E-3</v>
+        <v>3.9202115786843399E-3</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="B79" t="b">
         <v>0</v>
       </c>
       <c r="C79">
-        <v>4.1881229279374203E-3</v>
+        <v>3.8736604275618198E-3</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="B80" t="b">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>1.9351895646549E-3</v>
+        <v>3.8629491677409501E-3</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="B81" t="b">
         <v>0</v>
       </c>
       <c r="C81">
-        <v>2.7673987047794899E-3</v>
+        <v>3.7737438461541198E-3</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B82" t="b">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>2.3629262123293399E-3</v>
+        <v>3.7492203014699199E-3</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="B83" t="b">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>3.3588028554410298E-3</v>
+        <v>3.7458631690040901E-3</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="B84" t="b">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>4.4961353207627298E-3</v>
+        <v>3.6970770466482001E-3</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="B85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>1.02297937714613E-2</v>
+        <v>3.6330051744609898E-3</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="B86" t="b">
         <v>0</v>
       </c>
       <c r="C86">
-        <v>2.1111951912744999E-3</v>
+        <v>3.5530433898998499E-3</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="B87" t="b">
         <v>0</v>
       </c>
       <c r="C87">
-        <v>2.03507427643187E-3</v>
+        <v>3.5501590330342101E-3</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="B88" t="b">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>1.50781003329048E-3</v>
+        <v>3.5321061030563999E-3</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B89" t="b">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>3.7492203014699199E-3</v>
+        <v>3.4959187242876201E-3</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="B90" t="b">
         <v>0</v>
       </c>
       <c r="C90">
-        <v>1.9048115991550599E-3</v>
+        <v>3.4195566733026201E-3</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B91" t="b">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>2.8622700847091699E-3</v>
+        <v>3.3588028554410298E-3</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="B92" t="b">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>2.4835577546522998E-3</v>
+        <v>3.3192751674608599E-3</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="B93" t="b">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>2.3545713131806699E-3</v>
+        <v>3.2992644997828402E-3</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="B94" t="b">
         <v>0</v>
       </c>
       <c r="C94">
-        <v>2.1571426547545001E-3</v>
+        <v>3.2009988323491402E-3</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="B95" t="b">
         <v>0</v>
       </c>
       <c r="C95">
-        <v>2.4255166964619202E-3</v>
+        <v>2.97518955651378E-3</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="B96" t="b">
         <v>0</v>
       </c>
       <c r="C96">
-        <v>2.4473644196681202E-3</v>
+        <v>2.8695233846746798E-3</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97" t="b">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>2.6243326364107401E-3</v>
+        <v>2.8653192665580901E-3</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B98" t="b">
         <v>0</v>
       </c>
       <c r="C98">
-        <v>1.9301293801491501E-3</v>
+        <v>2.8622700847091699E-3</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="B99" t="b">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>2.1129649886507599E-3</v>
+        <v>2.83186908226457E-3</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="B100" t="b">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>2.1312944553037302E-3</v>
+        <v>2.8169987267097898E-3</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="B101" t="b">
         <v>0</v>
       </c>
       <c r="C101">
-        <v>2.05423525863633E-3</v>
+        <v>2.7959317115981799E-3</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B102" t="b">
         <v>0</v>
       </c>
       <c r="C102">
-        <v>2.8653192665580901E-3</v>
+        <v>2.7673987047794899E-3</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="B103" t="b">
         <v>0</v>
       </c>
       <c r="C103">
-        <v>9.0609838460228402E-3</v>
+        <v>2.7492521552440301E-3</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B104" t="b">
         <v>0</v>
       </c>
       <c r="C104">
-        <v>4.8985842847868496E-3</v>
+        <v>2.7427646656691799E-3</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="B105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>1.1047946402668599E-2</v>
+        <v>2.6862677340123301E-3</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="B106" t="b">
         <v>0</v>
       </c>
       <c r="C106">
-        <v>2.7427646656691799E-3</v>
+        <v>2.6708821614772598E-3</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B107" t="b">
         <v>0</v>
       </c>
       <c r="C107">
-        <v>4.2085107003471704E-3</v>
+        <v>2.6243326364107401E-3</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.4">
@@ -2629,90 +2639,90 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="B109" t="b">
         <v>0</v>
       </c>
       <c r="C109">
-        <v>7.0073988668028697E-3</v>
+        <v>2.59078347703831E-3</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B110" t="b">
         <v>0</v>
       </c>
       <c r="C110">
-        <v>2.97518955651378E-3</v>
+        <v>2.5839471804119801E-3</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="B111" t="b">
         <v>0</v>
       </c>
       <c r="C111">
-        <v>2.5839471804119801E-3</v>
+        <v>2.53828864890127E-3</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="B112" t="b">
         <v>0</v>
       </c>
       <c r="C112">
-        <v>2.3335285687010698E-3</v>
+        <v>2.4972254503298598E-3</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>1.07881773026858E-2</v>
+        <v>2.4835577546522998E-3</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="B114" t="b">
         <v>0</v>
       </c>
       <c r="C114">
-        <v>2.4748578734640901E-3</v>
+        <v>2.4827089526135702E-3</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115" t="b">
         <v>0</v>
       </c>
       <c r="C115">
-        <v>4.6605966860178002E-3</v>
+        <v>2.4748578734640901E-3</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="B116" t="b">
         <v>0</v>
       </c>
       <c r="C116">
-        <v>4.9454824790695203E-3</v>
+        <v>2.4473644196681202E-3</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.4">
@@ -2728,412 +2738,417 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="B118" t="b">
         <v>0</v>
       </c>
       <c r="C118">
-        <v>4.5320592590218402E-3</v>
+        <v>2.4255166964619202E-3</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="B119" t="b">
         <v>0</v>
       </c>
       <c r="C119">
-        <v>7.3854112682030099E-3</v>
+        <v>2.4064048467348602E-3</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="B120" t="b">
         <v>0</v>
       </c>
       <c r="C120">
-        <v>5.6935505102165603E-3</v>
+        <v>2.3629262123293399E-3</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="B121" t="b">
         <v>0</v>
       </c>
       <c r="C121">
-        <v>3.4195566733026201E-3</v>
+        <v>2.3545713131806699E-3</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="B122" t="b">
         <v>0</v>
       </c>
       <c r="C122">
-        <v>3.6330051744609898E-3</v>
+        <v>2.3375890492737601E-3</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>3.0656144270856701E-2</v>
+        <v>2.3335285687010698E-3</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="B124" t="b">
         <v>0</v>
       </c>
       <c r="C124">
-        <v>9.3052551059352503E-3</v>
+        <v>2.2766598197972699E-3</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="B125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125">
-        <v>1.23342055561735E-2</v>
+        <v>2.2301933500537201E-3</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B126" t="b">
         <v>0</v>
       </c>
       <c r="C126">
-        <v>4.2223488213628899E-3</v>
+        <v>2.2059415439747501E-3</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="B127" t="b">
         <v>0</v>
       </c>
       <c r="C127">
-        <v>3.7458631690040901E-3</v>
+        <v>2.1689874521959602E-3</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B128" t="b">
         <v>0</v>
       </c>
       <c r="C128">
-        <v>3.7737438461541198E-3</v>
+        <v>2.16645626614018E-3</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="B129" t="b">
         <v>0</v>
       </c>
       <c r="C129">
-        <v>9.9205844518593309E-3</v>
+        <v>2.1571426547545001E-3</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="B130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130">
-        <v>1.8992399549268599E-2</v>
+        <v>2.1312944553037302E-3</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="B131" t="b">
         <v>0</v>
       </c>
       <c r="C131">
-        <v>4.9552441242037204E-3</v>
+        <v>2.1129649886507599E-3</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="B132" t="b">
         <v>0</v>
       </c>
       <c r="C132">
-        <v>1.8047491679327699E-3</v>
+        <v>2.1111951912744999E-3</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="B133" t="b">
         <v>0</v>
       </c>
       <c r="C133">
-        <v>1.8797013115743699E-3</v>
+        <v>2.0745776068132101E-3</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B134" t="b">
         <v>0</v>
       </c>
       <c r="C134">
-        <v>1.7525929868976501E-3</v>
+        <v>2.06478836495376E-3</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="B135" t="b">
         <v>0</v>
       </c>
       <c r="C135">
-        <v>1.71585572877323E-3</v>
+        <v>2.05423525863633E-3</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B136" t="b">
         <v>0</v>
       </c>
       <c r="C136">
-        <v>1.7654902290340001E-3</v>
+        <v>2.03507427643187E-3</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="B137" t="b">
         <v>0</v>
       </c>
       <c r="C137">
-        <v>1.48913838673371E-3</v>
+        <v>2.01593998661064E-3</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B138" t="b">
         <v>0</v>
       </c>
       <c r="C138">
-        <v>1.37715612045001E-3</v>
+        <v>1.94781182637849E-3</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="B139" t="b">
         <v>0</v>
       </c>
       <c r="C139">
-        <v>1.8864347798165299E-3</v>
+        <v>1.9351895646549E-3</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="B140" t="b">
         <v>0</v>
       </c>
       <c r="C140">
-        <v>1.54195382024883E-3</v>
+        <v>1.9301293801491501E-3</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="B141" t="b">
         <v>0</v>
       </c>
       <c r="C141">
-        <v>2.2059415439747501E-3</v>
+        <v>1.9048115991550599E-3</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="B142" t="b">
         <v>0</v>
       </c>
       <c r="C142">
-        <v>1.94781182637849E-3</v>
+        <v>1.8936279107942401E-3</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B143" t="b">
         <v>0</v>
       </c>
       <c r="C143">
-        <v>2.16645626614018E-3</v>
+        <v>1.8864347798165299E-3</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B144" t="b">
         <v>0</v>
       </c>
       <c r="C144">
-        <v>2.06478836495376E-3</v>
+        <v>1.8797013115743699E-3</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B145" t="b">
         <v>0</v>
       </c>
       <c r="C145">
-        <v>2.6708821614772598E-3</v>
+        <v>1.8047491679327699E-3</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B146" t="b">
         <v>0</v>
       </c>
       <c r="C146">
-        <v>2.2301933500537201E-3</v>
+        <v>1.7654902290340001E-3</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B147" t="b">
         <v>0</v>
       </c>
       <c r="C147">
-        <v>2.2766598197972699E-3</v>
+        <v>1.7525929868976501E-3</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="B148" t="b">
         <v>0</v>
       </c>
       <c r="C148">
-        <v>2.0745776068132101E-3</v>
+        <v>1.73653266563582E-3</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149">
-        <v>1.22961380044507E-2</v>
+        <v>1.71585572877323E-3</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="B150" t="b">
         <v>0</v>
       </c>
       <c r="C150">
-        <v>3.5321061030563999E-3</v>
+        <v>1.6083685923649199E-3</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B151" t="b">
         <v>0</v>
       </c>
       <c r="C151">
-        <v>3.6970770466482001E-3</v>
+        <v>1.54195382024883E-3</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152">
-        <v>1.1367493211845801E-2</v>
+        <v>1.50781003329048E-3</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153">
-        <v>1.9447725648463102E-2</v>
+        <v>1.48913838673371E-3</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154">
-        <v>1.5808299100094E-2</v>
+        <v>1.37715612045001E-3</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C154" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C154">
+      <sortCondition descending="1" ref="C1:C154"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
